--- a/Datas/scenario1_silent_hanging.xlsx
+++ b/Datas/scenario1_silent_hanging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="msg"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -52,16 +52,28 @@
     <t>speaker_id</t>
   </si>
   <si>
-    <t>type</t>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>column</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>alive</t>
   </si>
   <si>
     <t>襲われた</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
   <si>
     <t>job</t>
@@ -265,14 +277,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -340,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,6 +372,12 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -369,16 +387,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -387,11 +402,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -713,8 +728,8 @@
     <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
@@ -725,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57" customFormat="1" s="1">
@@ -741,8 +756,8 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>37</v>
+      <c r="C2" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -758,8 +773,8 @@
       <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>38</v>
+      <c r="C3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -775,8 +790,8 @@
       <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>39</v>
+      <c r="C4" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -792,8 +807,8 @@
       <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>39</v>
+      <c r="C5" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="4">
         <v>5</v>
@@ -809,8 +824,8 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -826,8 +841,8 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
+      <c r="C7" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -843,8 +858,8 @@
       <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>42</v>
+      <c r="C8" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -854,420 +869,420 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="12">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="10">
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="12">
         <v>8</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="12">
         <v>6</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="12">
         <v>6</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="12">
         <v>8</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12">
+        <v>9</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12">
         <v>8</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A23" s="10">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A24" s="10">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="C33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>6</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>4</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A27" s="10">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>6</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10">
-        <v>6</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A29" s="10">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="C34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A35" s="12">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12">
         <v>9</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12">
         <v>9</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10">
+      <c r="C38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A39" s="12">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12">
         <v>9</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>8</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A34" s="10">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10">
-        <v>2</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="C39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12">
         <v>9</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>9</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10">
-        <v>9</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10">
-        <v>9</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="C40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,167 +1296,167 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25" customFormat="1" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25" customFormat="1" s="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A8" s="10">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25" customFormat="1" s="1">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A9" s="10">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A10" s="10">
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A11" s="10">
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5" customFormat="1" s="1">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1455,16 +1470,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.25" customFormat="1" s="1">
@@ -1474,11 +1490,14 @@
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.25" customFormat="1" s="1">
@@ -1488,12 +1507,15 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.25" customFormat="1" s="1">
       <c r="A3" s="4">
@@ -1502,11 +1524,14 @@
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.25" customFormat="1" s="1">
@@ -1516,11 +1541,14 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.25" customFormat="1" s="1">
@@ -1530,11 +1558,14 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" customFormat="1" s="1">
@@ -1544,11 +1575,14 @@
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.25" customFormat="1" s="1">
@@ -1558,11 +1592,14 @@
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/scenario1_silent_hanging.xlsx
+++ b/Datas/scenario1_silent_hanging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="msg"/>
@@ -271,6 +271,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -279,12 +285,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,19 +372,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -402,20 +402,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +722,8 @@
     <col min="1" max="1" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
@@ -878,8 +872,8 @@
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A10" s="12">
@@ -888,11 +882,11 @@
       <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A11" s="12">
@@ -904,8 +898,8 @@
       <c r="C11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A12" s="12">
@@ -917,8 +911,8 @@
       <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A13" s="12">
@@ -930,8 +924,8 @@
       <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A14" s="12">
@@ -940,11 +934,11 @@
       <c r="B14" s="12">
         <v>8</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A15" s="12">
@@ -956,8 +950,8 @@
       <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A16" s="12">
@@ -969,8 +963,8 @@
       <c r="C16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A17" s="12">
@@ -982,8 +976,8 @@
       <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A18" s="12">
@@ -995,8 +989,8 @@
       <c r="C18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A19" s="12">
@@ -1008,8 +1002,8 @@
       <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A20" s="12">
@@ -1021,8 +1015,8 @@
       <c r="C20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A21" s="12">
@@ -1034,8 +1028,8 @@
       <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A22" s="12">
@@ -1047,8 +1041,8 @@
       <c r="C22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A23" s="12">
@@ -1060,8 +1054,8 @@
       <c r="C23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A24" s="12">
@@ -1073,8 +1067,8 @@
       <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A25" s="12">
@@ -1086,8 +1080,8 @@
       <c r="C25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A26" s="12">
@@ -1099,8 +1093,8 @@
       <c r="C26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A27" s="12">
@@ -1112,8 +1106,8 @@
       <c r="C27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A28" s="12">
@@ -1125,8 +1119,8 @@
       <c r="C28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A29" s="12">
@@ -1138,8 +1132,8 @@
       <c r="C29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A30" s="12">
@@ -1151,8 +1145,8 @@
       <c r="C30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A31" s="12">
@@ -1161,11 +1155,11 @@
       <c r="B31" s="12">
         <v>9</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A32" s="12">
@@ -1177,8 +1171,8 @@
       <c r="C32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A33" s="12">
@@ -1190,8 +1184,8 @@
       <c r="C33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A34" s="12">
@@ -1203,8 +1197,8 @@
       <c r="C34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A35" s="12">
@@ -1216,8 +1210,8 @@
       <c r="C35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A36" s="12">
@@ -1229,8 +1223,8 @@
       <c r="C36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A37" s="12">
@@ -1242,8 +1236,8 @@
       <c r="C37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A38" s="12">
@@ -1255,8 +1249,8 @@
       <c r="C38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A39" s="12">
@@ -1268,8 +1262,8 @@
       <c r="C39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A40" s="12">
@@ -1281,8 +1275,8 @@
       <c r="C40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1472,7 +1466,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1614,7 +1608,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1623,7 +1617,7 @@
     <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>

--- a/Datas/scenario1_silent_hanging.xlsx
+++ b/Datas/scenario1_silent_hanging.xlsx
@@ -48,16 +48,16 @@
     <t>skill</t>
   </si>
   <si>
-    <t>(1)バニラ白、</t>
+    <t>(1d)バニラ白、</t>
   </si>
   <si>
-    <t>(1)クリス白、</t>
+    <t>(1d)クリス白、</t>
   </si>
   <si>
     <t>alive</t>
   </si>
   <si>
-    <t>(1)処刑</t>
+    <t>(1d)処刑</t>
   </si>
   <si>
     <t>name</t>
@@ -227,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +239,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,28 +290,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -622,7 +631,7 @@
     <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="13" width="37.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -638,7 +647,7 @@
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8078,7 +8087,7 @@
     <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -8112,7 +8121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -8146,7 +8155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8163,7 +8172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>

--- a/Datas/scenario1_silent_hanging.xlsx
+++ b/Datas/scenario1_silent_hanging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="msg"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -48,16 +48,16 @@
     <t>skill</t>
   </si>
   <si>
-    <t>(1)バニラ白、</t>
+    <t>(1d)バニラ白、</t>
   </si>
   <si>
-    <t>(1)クリス白、</t>
+    <t>(1d)クリス白、</t>
   </si>
   <si>
     <t>alive</t>
   </si>
   <si>
-    <t>(1)投票</t>
+    <t>(1d)投票</t>
   </si>
   <si>
     <t>name</t>
@@ -69,10 +69,16 @@
     <t>is_player</t>
   </si>
   <si>
+    <t>side</t>
+  </si>
+  <si>
     <t>GameMaster</t>
   </si>
   <si>
     <t>gray60</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>ニック</t>
@@ -629,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
@@ -662,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="8"/>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="8"/>
@@ -691,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -704,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
@@ -717,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -730,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -743,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -756,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
@@ -769,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -784,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -797,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -812,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -827,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
@@ -840,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -855,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
@@ -868,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -881,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
@@ -894,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
@@ -920,7 +926,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
@@ -933,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
@@ -946,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -959,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
@@ -972,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -985,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
@@ -998,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
@@ -1011,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8"/>
@@ -1024,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
@@ -1037,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="8"/>
@@ -1050,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
@@ -1063,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
@@ -1076,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
@@ -1089,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
@@ -1102,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="8"/>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="8"/>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" s="3">
         <v>4</v>
@@ -1143,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8"/>
@@ -1156,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8"/>
@@ -1169,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="8"/>
@@ -1182,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="8"/>
@@ -7917,16 +7923,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -7942,19 +7949,25 @@
       <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
@@ -7962,125 +7975,136 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
+      <c r="E8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
+      <c r="E9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
+      <c r="E10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
